--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tslp-Il7r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tslp-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Il7r</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.01622471393022</v>
+        <v>2.099392</v>
       </c>
       <c r="H2">
-        <v>2.01622471393022</v>
+        <v>4.198784</v>
       </c>
       <c r="I2">
-        <v>0.4540874163415305</v>
+        <v>0.3767652188062087</v>
       </c>
       <c r="J2">
-        <v>0.4540874163415305</v>
+        <v>0.3035604213192941</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.3416727115394</v>
+        <v>40.09512666666667</v>
       </c>
       <c r="N2">
-        <v>36.3416727115394</v>
+        <v>120.28538</v>
       </c>
       <c r="O2">
-        <v>0.6064229912225241</v>
+        <v>0.6247339948340943</v>
       </c>
       <c r="P2">
-        <v>0.6064229912225241</v>
+        <v>0.6247339948340944</v>
       </c>
       <c r="Q2">
-        <v>73.27297866656922</v>
+        <v>84.17538816298666</v>
       </c>
       <c r="R2">
-        <v>73.27297866656922</v>
+        <v>505.05232897792</v>
       </c>
       <c r="S2">
-        <v>0.2753690492943386</v>
+        <v>0.2353780402593444</v>
       </c>
       <c r="T2">
-        <v>0.2753690492943386</v>
+        <v>0.1896445146843234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.01622471393022</v>
+        <v>2.099392</v>
       </c>
       <c r="H3">
-        <v>2.01622471393022</v>
+        <v>4.198784</v>
       </c>
       <c r="I3">
-        <v>0.4540874163415305</v>
+        <v>0.3767652188062087</v>
       </c>
       <c r="J3">
-        <v>0.4540874163415305</v>
+        <v>0.3035604213192941</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.5862542265143</v>
+        <v>24.0109</v>
       </c>
       <c r="N3">
-        <v>23.5862542265143</v>
+        <v>72.03270000000001</v>
       </c>
       <c r="O3">
-        <v>0.3935770087774759</v>
+        <v>0.3741209150246345</v>
       </c>
       <c r="P3">
-        <v>0.3935770087774759</v>
+        <v>0.3741209150246345</v>
       </c>
       <c r="Q3">
-        <v>47.55518868053924</v>
+        <v>50.40829137280001</v>
       </c>
       <c r="R3">
-        <v>47.55518868053924</v>
+        <v>302.4497482368</v>
       </c>
       <c r="S3">
-        <v>0.1787183670471919</v>
+        <v>0.1409557484092354</v>
       </c>
       <c r="T3">
-        <v>0.1787183670471919</v>
+        <v>0.1135683025892379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.811279869075288</v>
+        <v>2.099392</v>
       </c>
       <c r="H4">
-        <v>0.811279869075288</v>
+        <v>4.198784</v>
       </c>
       <c r="I4">
-        <v>0.1827137506712669</v>
+        <v>0.3767652188062087</v>
       </c>
       <c r="J4">
-        <v>0.1827137506712669</v>
+        <v>0.3035604213192941</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>36.3416727115394</v>
+        <v>0.07349133333333334</v>
       </c>
       <c r="N4">
-        <v>36.3416727115394</v>
+        <v>0.220474</v>
       </c>
       <c r="O4">
-        <v>0.6064229912225241</v>
+        <v>0.001145090141271135</v>
       </c>
       <c r="P4">
-        <v>0.6064229912225241</v>
+        <v>0.001145090141271135</v>
       </c>
       <c r="Q4">
-        <v>29.48326747939466</v>
+        <v>0.1542871172693333</v>
       </c>
       <c r="R4">
-        <v>29.48326747939466</v>
+        <v>0.925722703616</v>
       </c>
       <c r="S4">
-        <v>0.1108018192195561</v>
+        <v>0.0004314301376288516</v>
       </c>
       <c r="T4">
-        <v>0.1108018192195561</v>
+        <v>0.0003476040457328357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,309 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.811279869075288</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H5">
-        <v>0.811279869075288</v>
+        <v>2.55001</v>
       </c>
       <c r="I5">
-        <v>0.1827137506712669</v>
+        <v>0.1525449710532097</v>
       </c>
       <c r="J5">
-        <v>0.1827137506712669</v>
+        <v>0.1843586404941081</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.5862542265143</v>
+        <v>40.09512666666667</v>
       </c>
       <c r="N5">
-        <v>23.5862542265143</v>
+        <v>120.28538</v>
       </c>
       <c r="O5">
-        <v>0.3935770087774759</v>
+        <v>0.6247339948340943</v>
       </c>
       <c r="P5">
-        <v>0.3935770087774759</v>
+        <v>0.6247339948340944</v>
       </c>
       <c r="Q5">
-        <v>19.13505324086298</v>
+        <v>34.08099131708889</v>
       </c>
       <c r="R5">
-        <v>19.13505324086298</v>
+        <v>306.7289218538</v>
       </c>
       <c r="S5">
-        <v>0.07191193145171076</v>
+        <v>0.095300029157923</v>
       </c>
       <c r="T5">
-        <v>0.07191193145171076</v>
+        <v>0.1151751099580668</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.828422212406756</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H6">
-        <v>0.828422212406756</v>
+        <v>2.55001</v>
       </c>
       <c r="I6">
-        <v>0.1865744921549144</v>
+        <v>0.1525449710532097</v>
       </c>
       <c r="J6">
-        <v>0.1865744921549144</v>
+        <v>0.1843586404941081</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.3416727115394</v>
+        <v>24.0109</v>
       </c>
       <c r="N6">
-        <v>36.3416727115394</v>
+        <v>72.03270000000001</v>
       </c>
       <c r="O6">
-        <v>0.6064229912225241</v>
+        <v>0.3741209150246345</v>
       </c>
       <c r="P6">
-        <v>0.6064229912225241</v>
+        <v>0.3741209150246345</v>
       </c>
       <c r="Q6">
-        <v>30.1062489102557</v>
+        <v>20.40934503633333</v>
       </c>
       <c r="R6">
-        <v>30.1062489102557</v>
+        <v>183.684105327</v>
       </c>
       <c r="S6">
-        <v>0.1131430616184066</v>
+        <v>0.05707026415283321</v>
       </c>
       <c r="T6">
-        <v>0.1131430616184066</v>
+        <v>0.06897242327435336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.828422212406756</v>
+        <v>0.8500033333333333</v>
       </c>
       <c r="H7">
-        <v>0.828422212406756</v>
+        <v>2.55001</v>
       </c>
       <c r="I7">
-        <v>0.1865744921549144</v>
+        <v>0.1525449710532097</v>
       </c>
       <c r="J7">
-        <v>0.1865744921549144</v>
+        <v>0.1843586404941081</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>23.5862542265143</v>
+        <v>0.07349133333333334</v>
       </c>
       <c r="N7">
-        <v>23.5862542265143</v>
+        <v>0.220474</v>
       </c>
       <c r="O7">
-        <v>0.3935770087774759</v>
+        <v>0.001145090141271135</v>
       </c>
       <c r="P7">
-        <v>0.3935770087774759</v>
+        <v>0.001145090141271135</v>
       </c>
       <c r="Q7">
-        <v>19.53937690871717</v>
+        <v>0.06246787830444445</v>
       </c>
       <c r="R7">
-        <v>19.53937690871717</v>
+        <v>0.56221090474</v>
       </c>
       <c r="S7">
-        <v>0.07343143053650787</v>
+        <v>0.0001746777424535211</v>
       </c>
       <c r="T7">
-        <v>0.07343143053650787</v>
+        <v>0.0002111072616879526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.784241862363901</v>
+        <v>0.3447446666666667</v>
       </c>
       <c r="H8">
-        <v>0.784241862363901</v>
+        <v>1.034234</v>
       </c>
       <c r="I8">
-        <v>0.1766243408322882</v>
+        <v>0.06186924584305369</v>
       </c>
       <c r="J8">
-        <v>0.1766243408322882</v>
+        <v>0.07477224567463792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.3416727115394</v>
+        <v>40.09512666666667</v>
       </c>
       <c r="N8">
-        <v>36.3416727115394</v>
+        <v>120.28538</v>
       </c>
       <c r="O8">
-        <v>0.6064229912225241</v>
+        <v>0.6247339948340943</v>
       </c>
       <c r="P8">
-        <v>0.6064229912225241</v>
+        <v>0.6247339948340944</v>
       </c>
       <c r="Q8">
-        <v>28.50066108871702</v>
+        <v>13.82258107765778</v>
       </c>
       <c r="R8">
-        <v>28.50066108871702</v>
+        <v>124.40322969892</v>
       </c>
       <c r="S8">
-        <v>0.1071090610902228</v>
+        <v>0.03865182111290361</v>
       </c>
       <c r="T8">
-        <v>0.1071090610902228</v>
+        <v>0.04671276374303288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.3447446666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.034234</v>
+      </c>
+      <c r="I9">
+        <v>0.06186924584305369</v>
+      </c>
+      <c r="J9">
+        <v>0.07477224567463792</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>24.0109</v>
+      </c>
+      <c r="N9">
+        <v>72.03270000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="P9">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="Q9">
+        <v>8.277629716866668</v>
+      </c>
+      <c r="R9">
+        <v>74.49866745180002</v>
+      </c>
+      <c r="S9">
+        <v>0.02314657886668731</v>
+      </c>
+      <c r="T9">
+        <v>0.02797386097024231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.3447446666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.034234</v>
+      </c>
+      <c r="I10">
+        <v>0.06186924584305369</v>
+      </c>
+      <c r="J10">
+        <v>0.07477224567463792</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.07349133333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.220474</v>
+      </c>
+      <c r="O10">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="P10">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="Q10">
+        <v>0.02533574521288889</v>
+      </c>
+      <c r="R10">
+        <v>0.228021706916</v>
+      </c>
+      <c r="S10">
+        <v>7.084586346276093E-05</v>
+      </c>
+      <c r="T10">
+        <v>8.562096136273112E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.658556</v>
+      </c>
+      <c r="H11">
+        <v>1.975668</v>
+      </c>
+      <c r="I11">
+        <v>0.1181870729411856</v>
+      </c>
+      <c r="J11">
+        <v>0.1428353090959305</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>40.09512666666667</v>
+      </c>
+      <c r="N11">
+        <v>120.28538</v>
+      </c>
+      <c r="O11">
+        <v>0.6247339948340943</v>
+      </c>
+      <c r="P11">
+        <v>0.6247339948340944</v>
+      </c>
+      <c r="Q11">
+        <v>26.40488623709333</v>
+      </c>
+      <c r="R11">
+        <v>237.64397613384</v>
+      </c>
+      <c r="S11">
+        <v>0.07383548221629541</v>
+      </c>
+      <c r="T11">
+        <v>0.08923407325486329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.658556</v>
+      </c>
+      <c r="H12">
+        <v>1.975668</v>
+      </c>
+      <c r="I12">
+        <v>0.1181870729411856</v>
+      </c>
+      <c r="J12">
+        <v>0.1428353090959305</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>24.0109</v>
+      </c>
+      <c r="N12">
+        <v>72.03270000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="P12">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="Q12">
+        <v>15.8125222604</v>
+      </c>
+      <c r="R12">
+        <v>142.3127003436</v>
+      </c>
+      <c r="S12">
+        <v>0.0442162558728396</v>
+      </c>
+      <c r="T12">
+        <v>0.053437676536796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.658556</v>
+      </c>
+      <c r="H13">
+        <v>1.975668</v>
+      </c>
+      <c r="I13">
+        <v>0.1181870729411856</v>
+      </c>
+      <c r="J13">
+        <v>0.1428353090959305</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.07349133333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.220474</v>
+      </c>
+      <c r="O13">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="P13">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="Q13">
+        <v>0.04839815851466667</v>
+      </c>
+      <c r="R13">
+        <v>0.4355834266320001</v>
+      </c>
+      <c r="S13">
+        <v>0.0001353348520506442</v>
+      </c>
+      <c r="T13">
+        <v>0.0001635593042711652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8341876666666668</v>
+      </c>
+      <c r="H14">
+        <v>2.502563</v>
+      </c>
+      <c r="I14">
+        <v>0.1497066287559005</v>
+      </c>
+      <c r="J14">
+        <v>0.1809283541754176</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>40.09512666666667</v>
+      </c>
+      <c r="N14">
+        <v>120.28538</v>
+      </c>
+      <c r="O14">
+        <v>0.6247339948340943</v>
+      </c>
+      <c r="P14">
+        <v>0.6247339948340944</v>
+      </c>
+      <c r="Q14">
+        <v>33.44686015877112</v>
+      </c>
+      <c r="R14">
+        <v>301.0217414289401</v>
+      </c>
+      <c r="S14">
+        <v>0.09352682023581842</v>
+      </c>
+      <c r="T14">
+        <v>0.1130320934827666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8341876666666668</v>
+      </c>
+      <c r="H15">
+        <v>2.502563</v>
+      </c>
+      <c r="I15">
+        <v>0.1497066287559005</v>
+      </c>
+      <c r="J15">
+        <v>0.1809283541754176</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.0109</v>
+      </c>
+      <c r="N15">
+        <v>72.03270000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="P15">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="Q15">
+        <v>20.02959664556667</v>
+      </c>
+      <c r="R15">
+        <v>180.2663698101</v>
+      </c>
+      <c r="S15">
+        <v>0.05600838093541075</v>
+      </c>
+      <c r="T15">
+        <v>0.0676890814180084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8341876666666668</v>
+      </c>
+      <c r="H16">
+        <v>2.502563</v>
+      </c>
+      <c r="I16">
+        <v>0.1497066287559005</v>
+      </c>
+      <c r="J16">
+        <v>0.1809283541754176</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07349133333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.220474</v>
+      </c>
+      <c r="O16">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="P16">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="Q16">
+        <v>0.06130556387355557</v>
+      </c>
+      <c r="R16">
+        <v>0.5517500748620001</v>
+      </c>
+      <c r="S16">
+        <v>0.0001714275846713194</v>
+      </c>
+      <c r="T16">
+        <v>0.0002071792746426829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.784241862363901</v>
-      </c>
-      <c r="H9">
-        <v>0.784241862363901</v>
-      </c>
-      <c r="I9">
-        <v>0.1766243408322882</v>
-      </c>
-      <c r="J9">
-        <v>0.1766243408322882</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>23.5862542265143</v>
-      </c>
-      <c r="N9">
-        <v>23.5862542265143</v>
-      </c>
-      <c r="O9">
-        <v>0.3935770087774759</v>
-      </c>
-      <c r="P9">
-        <v>0.3935770087774759</v>
-      </c>
-      <c r="Q9">
-        <v>18.49732794079</v>
-      </c>
-      <c r="R9">
-        <v>18.49732794079</v>
-      </c>
-      <c r="S9">
-        <v>0.06951527974206539</v>
-      </c>
-      <c r="T9">
-        <v>0.06951527974206539</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7852654999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.570531</v>
+      </c>
+      <c r="I17">
+        <v>0.1409268626004419</v>
+      </c>
+      <c r="J17">
+        <v>0.1135450292406116</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>40.09512666666667</v>
+      </c>
+      <c r="N17">
+        <v>120.28538</v>
+      </c>
+      <c r="O17">
+        <v>0.6247339948340943</v>
+      </c>
+      <c r="P17">
+        <v>0.6247339948340944</v>
+      </c>
+      <c r="Q17">
+        <v>31.48531968946333</v>
+      </c>
+      <c r="R17">
+        <v>188.91191813678</v>
+      </c>
+      <c r="S17">
+        <v>0.08804180185180957</v>
+      </c>
+      <c r="T17">
+        <v>0.07093543971104138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7852654999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.570531</v>
+      </c>
+      <c r="I18">
+        <v>0.1409268626004419</v>
+      </c>
+      <c r="J18">
+        <v>0.1135450292406116</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>24.0109</v>
+      </c>
+      <c r="N18">
+        <v>72.03270000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="P18">
+        <v>0.3741209150246345</v>
+      </c>
+      <c r="Q18">
+        <v>18.85493139395</v>
+      </c>
+      <c r="R18">
+        <v>113.1295883637</v>
+      </c>
+      <c r="S18">
+        <v>0.05272368678762826</v>
+      </c>
+      <c r="T18">
+        <v>0.04247957023599651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7852654999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.570531</v>
+      </c>
+      <c r="I19">
+        <v>0.1409268626004419</v>
+      </c>
+      <c r="J19">
+        <v>0.1135450292406116</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.07349133333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.220474</v>
+      </c>
+      <c r="O19">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="P19">
+        <v>0.001145090141271135</v>
+      </c>
+      <c r="Q19">
+        <v>0.05771020861566667</v>
+      </c>
+      <c r="R19">
+        <v>0.346261251694</v>
+      </c>
+      <c r="S19">
+        <v>0.0001613739610040378</v>
+      </c>
+      <c r="T19">
+        <v>0.0001300192935737671</v>
       </c>
     </row>
   </sheetData>
